--- a/biology/Zoologie/Penthetria_longiventris/Penthetria_longiventris.xlsx
+++ b/biology/Zoologie/Penthetria_longiventris/Penthetria_longiventris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plecia longiventris, Plecia superba
 Penthetria longiventris est une espèce fossile de mouches de la famille des Bibionidae (les « mouches de Saint-Marc » ou « mouches noires »).
@@ -512,17 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Penthetria longiventris est publiée en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse sous le protonyme Plecia longiventris[1],[2]. 
-Fossiles
-L'holotype Ni 7 et sa contre empreinte Ni 3, de l'ère Cénozoïque, et de l'époque Éocène (37,2 à 33,9 Ma) faisait partie de la collection du muséum de Nimes[note 1] et vient du lieu-dit Les Fumades, dans la formation de Célas, dans le Gard[3].
-Il a aussi un cotype C 74 de la collection du Muséum d'histoire naturelle de Marseille et venant de la formation de Célas dans le Gard[3].
-Reclassement
-Cette espèce a initialement été classée dans le genre Plecia . Elle a été reclassée en 2017 par J. Skartveit et A. Nel[4] dans le genre Penthetria.
-Selon les synonymes actuellement référencés dans Paleobiology Database, il a aussi plusieurs autres paratypes concernant Plecia superba : C 72, C 73 et C 10 venant du Muséum de Marseille et du gisement de Célas[2],[5].
-Étymologie
-L'épithète spécifique longiventris signifie en latin « à long ventre ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Penthetria longiventris est publiée en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse sous le protonyme Plecia longiventris,. 
 </t>
         </is>
       </c>
@@ -548,18 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937[1],[note 2] :
-« Bel insecte. Tête et thorax noirs. Abdomen brun, pattes brunes, ailes jaune-clair. Tête arrondie ; deux antennes cylindriques, se rétrécissant légèrement vers l'extrémité ; une dizaine d'articles courts et finement poilus, le dernier article un peu plus long que les précédents. Thorax ovale ; suture noto-pleurale très marquée, longitudinale ; les deux sutures sont parallèles et se réunissent à l'arrière par une suture transversale, formant ainsi une dépression en V. Pattes grêles, finement velues, cuisse légèrement renflée, tibias fins et longs avec éperon à l'extrémité, un éperon à la patte antérieure, deux éperons aux autres ; tarses à cinq articles dont le premier est le plus long, le dernier porte deux griffes. Ailes allongées, dépassant l'abdomen ; C marginale, s'étendant jusqu'au sommet de l'aile ; Sc parallèle à C, accolée à R, se termine dans C vers le tiers externe de l'aile ; R se rattache à C au delà du tiers externe, Rs se détache de la précédente vers le tiers interne, concave vers l'arrière, se dirige vers le sommet de l'aile, émet une branche antérieure fléchie et se raccordant à C; M divisée en deux branches, la branche antérieure se relie à Rs par une nervure transversale, formant une cellule RM fermée ; Cu sort de la base de l'aile, reliée à M par une nervure transversale ; une seule A. Abdomen brun ; huit segments bien distincts ; fine pilosité. Maximum de largeur au troisième segment, se rétrécit progressivement vers l'arrière. »[6].
-Dimensions
-La longueur totale du corps est de 11 mm ; la longueur de la tête 1 mm ; la longueur du thorax 2,5 mm ; la longueur de l' abdomen 7,5 mm ; la longueur de l'aile 9,5 mm[1].
-Affinités
-L'échantillon Ni 7 rappelle beaucoup Plecia lugens Oustalet (R 1008 de Kleinkems), mais dans ce dernier, l'abdomen est en fuseau, alors que celui-ci a plutôt la forme d'un cône de sapin[7].
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype Ni 7 et sa contre empreinte Ni 3, de l'ère Cénozoïque, et de l'époque Éocène (37,2 à 33,9 Ma) faisait partie de la collection du muséum de Nimes[note 1] et vient du lieu-dit Les Fumades, dans la formation de Célas, dans le Gard.
+Il a aussi un cotype C 74 de la collection du Muséum d'histoire naturelle de Marseille et venant de la formation de Célas dans le Gard.
 </t>
         </is>
       </c>
@@ -585,12 +592,201 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Reclassement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a initialement été classée dans le genre Plecia . Elle a été reclassée en 2017 par J. Skartveit et A. Nel dans le genre Penthetria.
+Selon les synonymes actuellement référencés dans Paleobiology Database, il a aussi plusieurs autres paratypes concernant Plecia superba : C 72, C 73 et C 10 venant du Muséum de Marseille et du gisement de Célas,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Penthetria_longiventris</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penthetria_longiventris</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique longiventris signifie en latin « à long ventre ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Penthetria_longiventris</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penthetria_longiventris</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937,[note 2] :
+« Bel insecte. Tête et thorax noirs. Abdomen brun, pattes brunes, ailes jaune-clair. Tête arrondie ; deux antennes cylindriques, se rétrécissant légèrement vers l'extrémité ; une dizaine d'articles courts et finement poilus, le dernier article un peu plus long que les précédents. Thorax ovale ; suture noto-pleurale très marquée, longitudinale ; les deux sutures sont parallèles et se réunissent à l'arrière par une suture transversale, formant ainsi une dépression en V. Pattes grêles, finement velues, cuisse légèrement renflée, tibias fins et longs avec éperon à l'extrémité, un éperon à la patte antérieure, deux éperons aux autres ; tarses à cinq articles dont le premier est le plus long, le dernier porte deux griffes. Ailes allongées, dépassant l'abdomen ; C marginale, s'étendant jusqu'au sommet de l'aile ; Sc parallèle à C, accolée à R, se termine dans C vers le tiers externe de l'aile ; R se rattache à C au delà du tiers externe, Rs se détache de la précédente vers le tiers interne, concave vers l'arrière, se dirige vers le sommet de l'aile, émet une branche antérieure fléchie et se raccordant à C; M divisée en deux branches, la branche antérieure se relie à Rs par une nervure transversale, formant une cellule RM fermée ; Cu sort de la base de l'aile, reliée à M par une nervure transversale ; une seule A. Abdomen brun ; huit segments bien distincts ; fine pilosité. Maximum de largeur au troisième segment, se rétrécit progressivement vers l'arrière. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Penthetria_longiventris</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penthetria_longiventris</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale du corps est de 11 mm ; la longueur de la tête 1 mm ; la longueur du thorax 2,5 mm ; la longueur de l' abdomen 7,5 mm ; la longueur de l'aile 9,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Penthetria_longiventris</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penthetria_longiventris</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'échantillon Ni 7 rappelle beaucoup Plecia lugens Oustalet (R 1008 de Kleinkems), mais dans ce dernier, l'abdomen est en fuseau, alors que celui-ci a plutôt la forme d'un cône de sapin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Penthetria_longiventris</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penthetria_longiventris</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Nicolas Théobald, les Bibionidés sont le genre dominant de la faune entomologique du Sannoisien du Gard. Ces diptères floricoles qui vivent sur des îlots herbeux d'un lac aux eaux calmes et peu profondes ont des larves aquatiques[8]. Toutefois, la disposition variée des couches sédimentaires indique des crues périodiques[9]. L'ensemble a un caractère méditerranéen à affinités subtropicales très prononcées[10]. Le climat est semblable au climat actuel des Indes orientales et du sud de la Chine[11].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Nicolas Théobald, les Bibionidés sont le genre dominant de la faune entomologique du Sannoisien du Gard. Ces diptères floricoles qui vivent sur des îlots herbeux d'un lac aux eaux calmes et peu profondes ont des larves aquatiques. Toutefois, la disposition variée des couches sédimentaires indique des crues périodiques. L'ensemble a un caractère méditerranéen à affinités subtropicales très prononcées. Le climat est semblable au climat actuel des Indes orientales et du sud de la Chine.
 </t>
         </is>
       </c>
